--- a/src/data/moves_guide.xlsx
+++ b/src/data/moves_guide.xlsx
@@ -5,20 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Hackathon\newest\clientside\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\latest_28\clientside\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F738C50D-7BAE-4AE3-B616-E0689D2D4866}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34A5AB0-CBD6-413A-B2F0-8FBB5B3F26F1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -27,154 +32,154 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
-    <t>بسم الله الرحمن الرحيم</t>
-  </si>
-  <si>
-    <t>السلام عليكم</t>
-  </si>
-  <si>
-    <t>وعليكم السلام</t>
-  </si>
-  <si>
-    <t>الحمدلله</t>
-  </si>
-  <si>
-    <t>مبسوط</t>
-  </si>
-  <si>
-    <t>غير مبسوط</t>
-  </si>
-  <si>
-    <t>حزين</t>
-  </si>
-  <si>
-    <t>عصبي</t>
-  </si>
-  <si>
-    <t>كيف الصحة؟</t>
-  </si>
-  <si>
-    <t>جيد</t>
-  </si>
-  <si>
-    <t>سيء</t>
-  </si>
-  <si>
-    <t>تعبان</t>
-  </si>
-  <si>
-    <t>مريض</t>
-  </si>
-  <si>
-    <t>نعم</t>
-  </si>
-  <si>
-    <t>لا</t>
-  </si>
-  <si>
-    <t>بابا</t>
-  </si>
-  <si>
-    <t>ماما</t>
-  </si>
-  <si>
-    <t>ولد</t>
-  </si>
-  <si>
-    <t>بنت</t>
-  </si>
-  <si>
-    <t>ولد صغير</t>
-  </si>
-  <si>
-    <t>بنت صغيرة</t>
-  </si>
-  <si>
-    <t>رجل</t>
-  </si>
-  <si>
-    <t>امرأة</t>
-  </si>
-  <si>
-    <t>ابنة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ابن </t>
-  </si>
-  <si>
-    <t>توأم</t>
-  </si>
-  <si>
-    <t>أخ</t>
-  </si>
-  <si>
-    <t>أخت</t>
-  </si>
-  <si>
-    <t>اخوة</t>
-  </si>
-  <si>
-    <t>جد</t>
-  </si>
-  <si>
-    <t>جدة</t>
-  </si>
-  <si>
-    <t>عائلة</t>
-  </si>
-  <si>
-    <t>أقارب</t>
-  </si>
-  <si>
-    <t>أولاد</t>
-  </si>
-  <si>
-    <t>طفل رضيع</t>
-  </si>
-  <si>
-    <t>بنات</t>
-  </si>
-  <si>
-    <t>صديق</t>
-  </si>
-  <si>
-    <t>أهلا وسهلا</t>
-  </si>
-  <si>
-    <t>شكرا</t>
-  </si>
-  <si>
-    <t>ابدا</t>
-  </si>
-  <si>
-    <t>انا</t>
-  </si>
-  <si>
-    <t>انت</t>
-  </si>
-  <si>
-    <t>انتم</t>
-  </si>
-  <si>
-    <t>صباح الخير</t>
-  </si>
-  <si>
-    <t>اسم</t>
-  </si>
-  <si>
-    <t>اسمي</t>
-  </si>
-  <si>
-    <t>اسمك</t>
-  </si>
-  <si>
-    <t>عمر</t>
-  </si>
-  <si>
-    <t>كيف حالك؟</t>
-  </si>
-  <si>
-    <t>كم عمرك؟</t>
+    <t>"بسم الله الرحمن الرحيم"</t>
+  </si>
+  <si>
+    <t>"السلام عليكم"</t>
+  </si>
+  <si>
+    <t>"وعليكم السلام"</t>
+  </si>
+  <si>
+    <t>"صباح الخير"</t>
+  </si>
+  <si>
+    <t>"أهلا وسهلا"</t>
+  </si>
+  <si>
+    <t>"شكرا"</t>
+  </si>
+  <si>
+    <t>"ابدا"</t>
+  </si>
+  <si>
+    <t>"انا"</t>
+  </si>
+  <si>
+    <t>"انت"</t>
+  </si>
+  <si>
+    <t>"انتم"</t>
+  </si>
+  <si>
+    <t>"اسم"</t>
+  </si>
+  <si>
+    <t>"اسمي"</t>
+  </si>
+  <si>
+    <t>"اسمك"</t>
+  </si>
+  <si>
+    <t>"عمر"</t>
+  </si>
+  <si>
+    <t>"كم عمرك؟"</t>
+  </si>
+  <si>
+    <t>"كيف حالك؟"</t>
+  </si>
+  <si>
+    <t>"الحمدلله"</t>
+  </si>
+  <si>
+    <t>"مبسوط"</t>
+  </si>
+  <si>
+    <t>"غير مبسوط"</t>
+  </si>
+  <si>
+    <t>"حزين"</t>
+  </si>
+  <si>
+    <t>"عصبي"</t>
+  </si>
+  <si>
+    <t>"كيف الصحة؟"</t>
+  </si>
+  <si>
+    <t>"جيد"</t>
+  </si>
+  <si>
+    <t>"سيء"</t>
+  </si>
+  <si>
+    <t>"تعبان"</t>
+  </si>
+  <si>
+    <t>"مريض"</t>
+  </si>
+  <si>
+    <t>"نعم"</t>
+  </si>
+  <si>
+    <t>"لا"</t>
+  </si>
+  <si>
+    <t>"بابا"</t>
+  </si>
+  <si>
+    <t>"ماما"</t>
+  </si>
+  <si>
+    <t>"ولد"</t>
+  </si>
+  <si>
+    <t>"بنت"</t>
+  </si>
+  <si>
+    <t>"ولد صغير"</t>
+  </si>
+  <si>
+    <t>"بنت صغيرة"</t>
+  </si>
+  <si>
+    <t>"رجل"</t>
+  </si>
+  <si>
+    <t>"امرأة"</t>
+  </si>
+  <si>
+    <t>"ابن "</t>
+  </si>
+  <si>
+    <t>"ابنة"</t>
+  </si>
+  <si>
+    <t>"توأم"</t>
+  </si>
+  <si>
+    <t>"أخ"</t>
+  </si>
+  <si>
+    <t>"أخت"</t>
+  </si>
+  <si>
+    <t>"اخوة"</t>
+  </si>
+  <si>
+    <t>"جد"</t>
+  </si>
+  <si>
+    <t>"جدة"</t>
+  </si>
+  <si>
+    <t>"عائلة"</t>
+  </si>
+  <si>
+    <t>"أقارب"</t>
+  </si>
+  <si>
+    <t>"طفل رضيع"</t>
+  </si>
+  <si>
+    <t>"أولاد"</t>
+  </si>
+  <si>
+    <t>"بنات"</t>
+  </si>
+  <si>
+    <t>"صديق"</t>
   </si>
 </sst>
 </file>
@@ -210,8 +215,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,20 +502,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -515,7 +523,7 @@
       <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -523,7 +531,7 @@
       <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -531,376 +539,376 @@
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>43</v>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>37</v>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>38</v>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>39</v>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>40</v>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>41</v>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>42</v>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>44</v>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>45</v>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>46</v>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
-        <v>47</v>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
-        <v>49</v>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
-        <v>48</v>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
-        <v>3</v>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
-        <v>4</v>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
-        <v>5</v>
+      <c r="B19" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
-        <v>6</v>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
-        <v>7</v>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
-        <v>8</v>
+      <c r="B22" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
-        <v>9</v>
+      <c r="B23" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>10</v>
+      <c r="B24" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>11</v>
+      <c r="B25" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>26</v>
       </c>
-      <c r="B26" t="s">
-        <v>12</v>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
-        <v>13</v>
+      <c r="B27" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>28</v>
       </c>
-      <c r="B28" t="s">
-        <v>14</v>
+      <c r="B28" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>29</v>
       </c>
-      <c r="B29" t="s">
-        <v>15</v>
+      <c r="B29" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>30</v>
       </c>
-      <c r="B30" t="s">
-        <v>16</v>
+      <c r="B30" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>31</v>
       </c>
-      <c r="B31" t="s">
-        <v>17</v>
+      <c r="B31" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>32</v>
       </c>
-      <c r="B32" t="s">
-        <v>18</v>
+      <c r="B32" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>33</v>
       </c>
-      <c r="B33" t="s">
-        <v>19</v>
+      <c r="B33" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>34</v>
       </c>
-      <c r="B34" t="s">
-        <v>20</v>
+      <c r="B34" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>35</v>
       </c>
-      <c r="B35" t="s">
-        <v>21</v>
+      <c r="B35" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>36</v>
       </c>
-      <c r="B36" t="s">
-        <v>22</v>
+      <c r="B36" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>37</v>
       </c>
-      <c r="B37" t="s">
-        <v>24</v>
+      <c r="B37" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>38</v>
       </c>
-      <c r="B38" t="s">
-        <v>23</v>
+      <c r="B38" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>39</v>
       </c>
-      <c r="B39" t="s">
-        <v>25</v>
+      <c r="B39" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>40</v>
       </c>
-      <c r="B40" t="s">
-        <v>26</v>
+      <c r="B40" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>41</v>
       </c>
-      <c r="B41" t="s">
-        <v>27</v>
+      <c r="B41" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>42</v>
       </c>
-      <c r="B42" t="s">
-        <v>28</v>
+      <c r="B42" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>43</v>
       </c>
-      <c r="B43" t="s">
-        <v>29</v>
+      <c r="B43" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>44</v>
       </c>
-      <c r="B44" t="s">
-        <v>30</v>
+      <c r="B44" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>45</v>
       </c>
-      <c r="B45" t="s">
-        <v>31</v>
+      <c r="B45" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>46</v>
       </c>
-      <c r="B46" t="s">
-        <v>32</v>
+      <c r="B46" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>47</v>
       </c>
-      <c r="B47" t="s">
-        <v>34</v>
+      <c r="B47" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>48</v>
       </c>
-      <c r="B48" t="s">
-        <v>33</v>
+      <c r="B48" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>49</v>
       </c>
-      <c r="B49" t="s">
-        <v>35</v>
+      <c r="B49" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>50</v>
       </c>
-      <c r="B50" t="s">
-        <v>36</v>
+      <c r="B50" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
